--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8370" windowWidth="20385"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7950" windowWidth="20390" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="test2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -65,39 +65,148 @@
     <t xml:space="preserve">get    </t>
   </si>
   <si>
+    <t xml:space="preserve">{'show_env': 1} </t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>1.023141</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"450c94bc-84ac-4e0b-95d2-7724b94cb282","X-Request-Start":"1530671965288"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=1"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 2}</t>
+  </si>
+  <si>
+    <t>1.000872</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"ce17285f-a191-4710-9c9e-7b7fabd38923","X-Request-Start":"1530671966441"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=2"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 3}</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>1.690857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"65c8072c-7a84-4f04-b281-3363fe20a0b6","X-Request-Start":"1530671967630"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=3"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 4}</t>
+  </si>
+  <si>
+    <t>3.959362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1145","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"63331993-6498-44e7-831b-0867ba267463","X-Request-Start":"1530671969470"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=4"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 5}</t>
+  </si>
+  <si>
+    <t>1.007563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7914fb07-1909-4b94-b50c-2dd5bdfd2a2c","X-Request-Start":"1530671973594"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=5"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 6}</t>
+  </si>
+  <si>
+    <t>0.99555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c7e0c014-86c8-4e82-8cc1-2633c57573ce","X-Request-Start":"1530671974746"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=6"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 7}</t>
+  </si>
+  <si>
+    <t>0.997158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"232af100-a7ff-473b-a38c-560ae680bb14","X-Request-Start":"1530671975889"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=7"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 8}</t>
+  </si>
+  <si>
+    <t>1.003037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"fc1ca354-57d5-4ef6-9fce-34bfc522d9c8","X-Request-Start":"1530671977040"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=8"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 9}</t>
+  </si>
+  <si>
+    <t>0.977778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"cc67a902-7e07-473e-bb6f-477386aa1123","X-Request-Start":"1530671978264"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=9"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 10}</t>
+  </si>
+  <si>
+    <t>0.947387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"bdb042cf-0b5f-49d1-91bd-00627b3fe6ca","X-Request-Start":"1530671979363"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=10"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 11}</t>
+  </si>
+  <si>
+    <t>1.020851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"3","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"9237b259-9efb-439a-a166-6536f60de8da","X-Request-Start":"1530671980532"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=11"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 12}</t>
+  </si>
+  <si>
+    <t>1.592219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connection":"close","Content-Length":"2","Host":"httpbin.org","User-Agent":"python-requests/2.19.1"},"origin":"122.226.183.115","url":"https://httpbin.org/get"}
+</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>2.236922</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connection":"close","Content-Length":"2","Host":"httpbin.org","User-Agent":"python-requests/2.18.4"},"origin":"122.226.183.86","url":"https://httpbin.org/get"}
-</t>
-  </si>
-  <si>
-    <t>1.024371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connection":"close","Content-Length":"2","Host":"httpbin.org","User-Agent":"python-requests/2.18.4"},"origin":"61.242.42.165","url":"https://httpbin.org/get"}
-</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>1.952648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connection":"close","Content-Length":"2","Host":"httpbin.org","User-Agent":"python-requests/2.18.4"},"origin":"122.226.183.84","url":"https://httpbin.org/get"}
+    <t>0.988731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c85d2806-7bd0-48ff-b7ff-e769133f52fb","X-Request-Start":"1530671981674"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
 </t>
   </si>
 </sst>
@@ -105,13 +214,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
-  </numFmts>
-  <fonts count="20">
+  <numFmts count="0"/>
+  <fonts count="9">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -121,7 +225,7 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
@@ -129,99 +233,7 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
@@ -229,42 +241,37 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <color rgb="00000000"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -277,194 +284,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -487,157 +308,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
-    <xf borderId="0" fillId="27" fontId="2" numFmtId="0"/>
-    <xf borderId="8" fillId="24" fontId="16" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
-    <xf borderId="0" fillId="23" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="5" fillId="16" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="9" numFmtId="0"/>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="9" numFmtId="0"/>
-    <xf borderId="4" fillId="15" fontId="10" numFmtId="0"/>
-    <xf borderId="8" fillId="15" fontId="19" numFmtId="0"/>
-    <xf borderId="2" fillId="7" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="14" fontId="9" numFmtId="0"/>
-    <xf borderId="9" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="33" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="17" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -645,7 +321,7 @@
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -654,57 +330,28 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -989,6 +636,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -998,27 +646,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="J2" sqref="J2:M4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="5.64166666666667"/>
-    <col customWidth="1" max="2" min="2" width="23.375"/>
-    <col customWidth="1" max="3" min="3" width="9.008333333333329"/>
-    <col customWidth="1" max="4" min="4" width="10.2083333333333"/>
-    <col customWidth="1" max="5" min="5" width="15.2083333333333"/>
-    <col customWidth="1" max="6" min="6" width="9.016666666666669"/>
-    <col customWidth="1" max="7" min="7" width="7.28333333333333"/>
-    <col customWidth="1" max="8" min="8" width="10.9666666666667"/>
-    <col customWidth="1" max="9" min="9" width="7.28333333333333"/>
-    <col customWidth="1" max="10" min="10" width="8.141666666666669"/>
-    <col customWidth="1" max="11" min="11" width="9.225"/>
-    <col customWidth="1" max="13" min="13" width="19.8833333333333"/>
-    <col customWidth="1" max="14" min="14" style="5" width="10.5416666666667"/>
+    <col customWidth="1" max="1" min="1" width="5.6328125"/>
+    <col customWidth="1" max="2" min="2" width="23.36328125"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="10.1796875"/>
+    <col customWidth="1" max="5" min="5" width="15.1796875"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="7.26953125"/>
+    <col customWidth="1" max="8" min="8" width="11"/>
+    <col customWidth="1" max="9" min="9" width="7.26953125"/>
+    <col customWidth="1" max="10" min="10" width="8.1796875"/>
+    <col customWidth="1" max="11" min="11" width="9.1796875"/>
+    <col customWidth="1" max="13" min="13" width="19.90625"/>
+    <col customWidth="1" max="14" min="14" style="5" width="10.54296875"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="40" r="1" s="1" spans="1:14">
@@ -1087,19 +735,19 @@
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="5" t="n"/>
+      <c r="N2" s="10" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="43" r="3" s="1" spans="1:14">
       <c r="A3" s="1" t="n">
@@ -1112,30 +760,30 @@
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="K3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="5" t="n"/>
+      <c r="L3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="10" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="43" r="4" s="1" spans="1:14">
       <c r="A4" s="1" t="n">
@@ -1148,35 +796,360 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="10" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="5" s="1" spans="1:14">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="10" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="6" s="1" spans="1:14">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="M6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="10" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="7" s="1" spans="1:14">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="K7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="5" t="s"/>
+      <c r="M7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="10" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="8" s="1" spans="1:14">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="10" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="9" s="1" spans="1:14">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="10" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="10" s="1" spans="1:14">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="10" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="11" s="1" spans="1:14">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="10" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="12" s="1" spans="1:14">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="10" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="13" s="1" spans="1:14">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="10" t="s"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://httpbin.org/get" ref="B2" tooltip="https://httpbin.org/get" r:id="rId1"/>
-    <hyperlink display="https://httpbin.org/get" ref="B3" tooltip="https://httpbin.org/get" r:id="rId2"/>
-    <hyperlink display="https://httpbin.org/get" ref="B4" tooltip="https://httpbin.org/get" r:id="rId3"/>
+    <hyperlink ref="B2" tooltip="https://httpbin.org/get" r:id="rId1"/>
+    <hyperlink ref="B3" tooltip="https://httpbin.org/get" r:id="rId2"/>
+    <hyperlink ref="B4" tooltip="https://httpbin.org/get" r:id="rId3"/>
+    <hyperlink ref="B5" tooltip="https://httpbin.org/get" r:id="rId4"/>
+    <hyperlink ref="B6" tooltip="https://httpbin.org/get" r:id="rId5"/>
+    <hyperlink ref="B7" tooltip="https://httpbin.org/get" r:id="rId6"/>
+    <hyperlink ref="B8" tooltip="https://httpbin.org/get" r:id="rId7"/>
+    <hyperlink ref="B9" tooltip="https://httpbin.org/get" r:id="rId8"/>
+    <hyperlink ref="B10" tooltip="https://httpbin.org/get" r:id="rId9"/>
+    <hyperlink ref="B11" tooltip="https://httpbin.org/get" r:id="rId10"/>
+    <hyperlink ref="B12" tooltip="https://httpbin.org/get" r:id="rId11"/>
+    <hyperlink ref="B13" tooltip="https://httpbin.org/get" r:id="rId12"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="landscape" paperSize="3"/>
 </worksheet>
 </file>
 
@@ -1188,11 +1161,11 @@
   </sheetPr>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="40" r="1" s="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -1249,7 +1222,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -1277,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -1305,13 +1278,13 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
@@ -1330,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
@@ -1358,7 +1331,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
@@ -1386,13 +1359,13 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J7" s="4" t="n"/>
       <c r="K7" s="4" t="n"/>
@@ -1402,12 +1375,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://httpbin.org/get" ref="B2" tooltip="https://httpbin.org/get" r:id="rId1"/>
-    <hyperlink display="https://httpbin.org/get" ref="B3" tooltip="https://httpbin.org/get" r:id="rId2"/>
-    <hyperlink display="https://httpbin.org/get" ref="B4" tooltip="https://httpbin.org/get" r:id="rId3"/>
-    <hyperlink display="https://httpbin.org/get" ref="B5" tooltip="https://httpbin.org/get" r:id="rId4"/>
-    <hyperlink display="https://httpbin.org/get" ref="B6" tooltip="https://httpbin.org/get" r:id="rId5"/>
-    <hyperlink display="https://httpbin.org/get" ref="B7" tooltip="https://httpbin.org/get" r:id="rId6"/>
+    <hyperlink ref="B2" tooltip="https://httpbin.org/get" r:id="rId1"/>
+    <hyperlink ref="B3" tooltip="https://httpbin.org/get" r:id="rId2"/>
+    <hyperlink ref="B4" tooltip="https://httpbin.org/get" r:id="rId3"/>
+    <hyperlink ref="B5" tooltip="https://httpbin.org/get" r:id="rId4"/>
+    <hyperlink ref="B6" tooltip="https://httpbin.org/get" r:id="rId5"/>
+    <hyperlink ref="B7" tooltip="https://httpbin.org/get" r:id="rId6"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -74,26 +74,26 @@
     <t>200</t>
   </si>
   <si>
-    <t>1.023141</t>
+    <t>9.416401</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"450c94bc-84ac-4e0b-95d2-7724b94cb282","X-Request-Start":"1530671965288"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=1"}
+    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.112","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"8b5d4b2a-f5a6-4987-8151-393c9bcc15a0","X-Request-Start":"1530706816216"},"origin":"122.226.183.112","url":"https://httpbin.org/get?show_env=1"}
 </t>
   </si>
   <si>
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>1.000872</t>
+    <t>1.207248</t>
   </si>
   <si>
     <t>fail</t>
   </si>
   <si>
-    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"ce17285f-a191-4710-9c9e-7b7fabd38923","X-Request-Start":"1530671966441"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=2"}
+    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.114","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"d7be6d4a-91c0-4f69-a0ba-93a4031ad25b","X-Request-Start":"1530706817775"},"origin":"122.226.183.114","url":"https://httpbin.org/get?show_env=2"}
 </t>
   </si>
   <si>
@@ -103,110 +103,110 @@
     <t>close</t>
   </si>
   <si>
-    <t>1.690857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"65c8072c-7a84-4f04-b281-3363fe20a0b6","X-Request-Start":"1530671967630"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=3"}
+    <t>1.114428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"014a5592-23c3-45db-bbc0-f4336d9ac864","X-Request-Start":"1530706819114"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=3"}
 </t>
   </si>
   <si>
     <t>{'show_env': 4}</t>
   </si>
   <si>
-    <t>3.959362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1145","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"63331993-6498-44e7-831b-0867ba267463","X-Request-Start":"1530671969470"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=4"}
+    <t>1.266599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.114","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"fb3de6ab-66d6-4c69-a456-c30a9303c8ec","X-Request-Start":"1530706820663"},"origin":"122.226.183.114","url":"https://httpbin.org/get?show_env=4"}
 </t>
   </si>
   <si>
     <t>{'show_env': 5}</t>
   </si>
   <si>
-    <t>1.007563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7914fb07-1909-4b94-b50c-2dd5bdfd2a2c","X-Request-Start":"1530671973594"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=5"}
+    <t>1.159689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"e28ba5a7-11be-42df-b8ca-bf30687abcbc","X-Request-Start":"1530706822083"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=5"}
 </t>
   </si>
   <si>
     <t>{'show_env': 6}</t>
   </si>
   <si>
-    <t>0.99555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c7e0c014-86c8-4e82-8cc1-2633c57573ce","X-Request-Start":"1530671974746"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=6"}
+    <t>1.058489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"75273a15-88c0-4078-9cba-4fcdaec5ec17","X-Request-Start":"1530706823518"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=6"}
 </t>
   </si>
   <si>
     <t>{'show_env': 7}</t>
   </si>
   <si>
-    <t>0.997158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"232af100-a7ff-473b-a38c-560ae680bb14","X-Request-Start":"1530671975889"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=7"}
+    <t>1.097248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.115","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"b560fde4-f035-4983-92a8-fba1b5ec0d83","X-Request-Start":"1530706824902"},"origin":"122.226.183.115","url":"https://httpbin.org/get?show_env=7"}
 </t>
   </si>
   <si>
     <t>{'show_env': 8}</t>
   </si>
   <si>
-    <t>1.003037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"fc1ca354-57d5-4ef6-9fce-34bfc522d9c8","X-Request-Start":"1530671977040"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=8"}
+    <t>1.035655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c7a42142-b424-4740-8d80-252c72fc12cd","X-Request-Start":"1530706826208"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=8"}
 </t>
   </si>
   <si>
     <t>{'show_env': 9}</t>
   </si>
   <si>
-    <t>0.977778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"cc67a902-7e07-473e-bb6f-477386aa1123","X-Request-Start":"1530671978264"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=9"}
+    <t>1.012673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"09a87700-844f-47ac-ad3a-69e9e3c70a19","X-Request-Start":"1530706827445"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=9"}
 </t>
   </si>
   <si>
     <t>{'show_env': 10}</t>
   </si>
   <si>
-    <t>0.947387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"bdb042cf-0b5f-49d1-91bd-00627b3fe6ca","X-Request-Start":"1530671979363"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=10"}
+    <t>1.279665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.114","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"26dc6e7e-3eb0-4e38-b281-490b5c622fe5","X-Request-Start":"1530706828956"},"origin":"122.226.183.114","url":"https://httpbin.org/get?show_env=10"}
 </t>
   </si>
   <si>
     <t>{'show_env': 11}</t>
   </si>
   <si>
-    <t>1.020851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"3","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"9237b259-9efb-439a-a166-6536f60de8da","X-Request-Start":"1530671980532"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=11"}
+    <t>2.081855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.114","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7ee7d097-2f8a-4631-8539-59efbab936c8","X-Request-Start":"1530706830403"},"origin":"122.226.183.114","url":"https://httpbin.org/get?show_env=11"}
 </t>
   </si>
   <si>
     <t>{'show_env': 12}</t>
   </si>
   <si>
-    <t>1.592219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connection":"close","Content-Length":"2","Host":"httpbin.org","User-Agent":"python-requests/2.19.1"},"origin":"122.226.183.115","url":"https://httpbin.org/get"}
+    <t>0.988731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c85d2806-7bd0-48ff-b7ff-e769133f52fb","X-Request-Start":"1530671981674"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
 </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>0.988731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c85d2806-7bd0-48ff-b7ff-e769133f52fb","X-Request-Start":"1530671981674"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
+    <t>1.08438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"1afef6f8-4d55-4132-9828-19185e9e9002","X-Request-Start":"1530706832667"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=12"}
 </t>
   </si>
 </sst>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -71,30 +71,23 @@
     <t>json</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>9.416401</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.112","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"8b5d4b2a-f5a6-4987-8151-393c9bcc15a0","X-Request-Start":"1530706816216"},"origin":"122.226.183.112","url":"https://httpbin.org/get?show_env=1"}
+    <t>503</t>
+  </si>
+  <si>
+    <t>1.707986</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The deployment is currently unavailable
 </t>
   </si>
   <si>
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>1.207248</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.114","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"d7be6d4a-91c0-4f69-a0ba-93a4031ad25b","X-Request-Start":"1530706817775"},"origin":"122.226.183.114","url":"https://httpbin.org/get?show_env=2"}
-</t>
+    <t>1.285017</t>
   </si>
   <si>
     <t>{'show_env': 3}</t>
@@ -103,111 +96,67 @@
     <t>close</t>
   </si>
   <si>
-    <t>1.114428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"014a5592-23c3-45db-bbc0-f4336d9ac864","X-Request-Start":"1530706819114"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=3"}
-</t>
+    <t>0.759389</t>
   </si>
   <si>
     <t>{'show_env': 4}</t>
   </si>
   <si>
-    <t>1.266599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.114","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"fb3de6ab-66d6-4c69-a456-c30a9303c8ec","X-Request-Start":"1530706820663"},"origin":"122.226.183.114","url":"https://httpbin.org/get?show_env=4"}
-</t>
+    <t>0.963466</t>
   </si>
   <si>
     <t>{'show_env': 5}</t>
   </si>
   <si>
-    <t>1.159689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"e28ba5a7-11be-42df-b8ca-bf30687abcbc","X-Request-Start":"1530706822083"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=5"}
-</t>
+    <t>0.822901</t>
   </si>
   <si>
     <t>{'show_env': 6}</t>
   </si>
   <si>
-    <t>1.058489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"75273a15-88c0-4078-9cba-4fcdaec5ec17","X-Request-Start":"1530706823518"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=6"}
-</t>
+    <t>0.860832</t>
   </si>
   <si>
     <t>{'show_env': 7}</t>
   </si>
   <si>
-    <t>1.097248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.115","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"b560fde4-f035-4983-92a8-fba1b5ec0d83","X-Request-Start":"1530706824902"},"origin":"122.226.183.115","url":"https://httpbin.org/get?show_env=7"}
-</t>
+    <t>0.794932</t>
   </si>
   <si>
     <t>{'show_env': 8}</t>
   </si>
   <si>
-    <t>1.035655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c7a42142-b424-4740-8d80-252c72fc12cd","X-Request-Start":"1530706826208"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=8"}
-</t>
+    <t>1.937996</t>
   </si>
   <si>
     <t>{'show_env': 9}</t>
   </si>
   <si>
-    <t>1.012673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"09a87700-844f-47ac-ad3a-69e9e3c70a19","X-Request-Start":"1530706827445"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=9"}
-</t>
+    <t>0.781898</t>
   </si>
   <si>
     <t>{'show_env': 10}</t>
   </si>
   <si>
-    <t>1.279665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.114","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"26dc6e7e-3eb0-4e38-b281-490b5c622fe5","X-Request-Start":"1530706828956"},"origin":"122.226.183.114","url":"https://httpbin.org/get?show_env=10"}
-</t>
+    <t>4.31562</t>
   </si>
   <si>
     <t>{'show_env': 11}</t>
   </si>
   <si>
-    <t>2.081855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.114","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7ee7d097-2f8a-4631-8539-59efbab936c8","X-Request-Start":"1530706830403"},"origin":"122.226.183.114","url":"https://httpbin.org/get?show_env=11"}
-</t>
+    <t>0.760992</t>
   </si>
   <si>
     <t>{'show_env': 12}</t>
   </si>
   <si>
-    <t>0.988731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c85d2806-7bd0-48ff-b7ff-e769133f52fb","X-Request-Start":"1530671981674"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
-</t>
+    <t>0.74563</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>1.08438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"1afef6f8-4d55-4132-9828-19185e9e9002","X-Request-Start":"1530706832667"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=12"}
-</t>
+    <t>0.762529</t>
   </si>
 </sst>
 </file>
@@ -735,16 +684,16 @@
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="10" t="n"/>
@@ -778,10 +727,10 @@
         <v>23</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N3" s="10" t="n"/>
     </row>
@@ -796,25 +745,25 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>29</v>
+      <c r="M4" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="N4" s="10" t="n"/>
     </row>
@@ -829,7 +778,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
@@ -840,17 +789,17 @@
       <c r="I5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="9" t="s">
+      <c r="K5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>32</v>
+      <c r="M5" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="N5" s="10" t="n"/>
     </row>
@@ -865,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
@@ -880,13 +829,13 @@
         <v>18</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N6" s="10" t="n"/>
     </row>
@@ -901,25 +850,25 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="9" t="s">
+      <c r="K7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="9" t="s">
-        <v>38</v>
+      <c r="M7" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="N7" s="10" t="n"/>
     </row>
@@ -934,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>17</v>
@@ -945,17 +894,17 @@
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="9" t="s">
+      <c r="K8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>41</v>
+      <c r="M8" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="N8" s="10" t="n"/>
     </row>
@@ -970,7 +919,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -985,13 +934,13 @@
         <v>18</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N9" s="10" t="n"/>
     </row>
@@ -1006,25 +955,25 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="9" t="s">
+      <c r="K10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>47</v>
+      <c r="M10" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="N10" s="10" t="n"/>
     </row>
@@ -1039,7 +988,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -1050,17 +999,17 @@
       <c r="I11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="9" t="s">
+      <c r="K11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>50</v>
+      <c r="M11" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="N11" s="10" t="n"/>
     </row>
@@ -1075,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
@@ -1090,13 +1039,13 @@
         <v>18</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="N12" s="10" t="n"/>
     </row>
@@ -1111,25 +1060,25 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="9" t="s">
+      <c r="K13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="9" t="s">
-        <v>59</v>
+      <c r="M13" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="N13" s="10" t="s"/>
     </row>
@@ -1222,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -1250,7 +1199,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -1278,13 +1227,13 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
@@ -1303,7 +1252,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
@@ -1331,7 +1280,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
@@ -1359,13 +1308,13 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" s="4" t="n"/>
       <c r="K7" s="4" t="n"/>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -71,92 +71,143 @@
     <t>json</t>
   </si>
   <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>1.707986</t>
+    <t>200</t>
+  </si>
+  <si>
+    <t>3.572802</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"e5c98ef0-e727-41d9-9772-2f0c9a592647","X-Request-Start":"1532073434151"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=1"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 2}</t>
+  </si>
+  <si>
+    <t>0.975671</t>
   </si>
   <si>
     <t>fail</t>
   </si>
   <si>
-    <t xml:space="preserve">The deployment is currently unavailable
+    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"34690566-37e3-4860-a728-17e3e71c8e60","X-Request-Start":"1532073436579"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=2"}
 </t>
   </si>
   <si>
-    <t>{'show_env': 2}</t>
-  </si>
-  <si>
-    <t>1.285017</t>
-  </si>
-  <si>
     <t>{'show_env': 3}</t>
   </si>
   <si>
     <t>close</t>
   </si>
   <si>
-    <t>0.759389</t>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"ed6c2ccb-1ef9-4a6c-9ce5-6d7711d7933c","X-Request-Start":"1532073437689"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=3"}
+</t>
   </si>
   <si>
     <t>{'show_env': 4}</t>
   </si>
   <si>
-    <t>0.963466</t>
+    <t>0.983714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"046e5830-e4dc-4d11-9fda-6e1df4a16a4b","X-Request-Start":"1532073438909"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=4"}
+</t>
   </si>
   <si>
     <t>{'show_env': 5}</t>
   </si>
   <si>
-    <t>0.822901</t>
+    <t>1.024516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"40ed31cc-00b7-4532-863d-22fab973c35a","X-Request-Start":"1532073440102"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=5"}
+</t>
   </si>
   <si>
     <t>{'show_env': 6}</t>
   </si>
   <si>
-    <t>0.860832</t>
+    <t>0.950964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"513049e1-f6dd-445c-93c7-15b0ace8fd86","X-Request-Start":"1532073441195"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=6"}
+</t>
   </si>
   <si>
     <t>{'show_env': 7}</t>
   </si>
   <si>
-    <t>0.794932</t>
+    <t>0.946526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7b11c464-0d29-4f44-9457-02d750c647a5","X-Request-Start":"1532073442346"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=7"}
+</t>
   </si>
   <si>
     <t>{'show_env': 8}</t>
   </si>
   <si>
-    <t>1.937996</t>
+    <t>2.049584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"1c6d38be-363c-4610-97ed-74639817d88d","X-Request-Start":"1532073444562"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=8"}
+</t>
   </si>
   <si>
     <t>{'show_env': 9}</t>
   </si>
   <si>
-    <t>0.781898</t>
+    <t>1.852357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"13160021-3a2d-4fe2-859e-131bbbc60f5a","X-Request-Start":"1532073446564"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=9"}
+</t>
   </si>
   <si>
     <t>{'show_env': 10}</t>
   </si>
   <si>
-    <t>4.31562</t>
+    <t>0.966398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"f6fc17e5-049c-441e-afaf-1cca7d1a3509","X-Request-Start":"1532073447722"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=10"}
+</t>
   </si>
   <si>
     <t>{'show_env': 11}</t>
   </si>
   <si>
-    <t>0.760992</t>
+    <t>0.952278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"3a2d8b4d-01d3-4664-ab9b-295166d410bb","X-Request-Start":"1532073448816"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=11"}
+</t>
   </si>
   <si>
     <t>{'show_env': 12}</t>
   </si>
   <si>
-    <t>0.74563</t>
+    <t>1.08438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"1afef6f8-4d55-4132-9828-19185e9e9002","X-Request-Start":"1530706832667"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=12"}
+</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>0.762529</t>
+    <t>0.993577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"b7b6b352-df63-406e-8574-26f1d0a15bbf","X-Request-Start":"1532073449973"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
+</t>
   </si>
 </sst>
 </file>
@@ -684,16 +735,16 @@
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="10" t="n"/>
@@ -727,10 +778,10 @@
         <v>23</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N3" s="10" t="n"/>
     </row>
@@ -745,25 +796,25 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="K4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>21</v>
+      <c r="M4" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="N4" s="10" t="n"/>
     </row>
@@ -778,7 +829,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
@@ -789,17 +840,17 @@
       <c r="I5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>21</v>
+      <c r="M5" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="N5" s="10" t="n"/>
     </row>
@@ -814,7 +865,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
@@ -829,13 +880,13 @@
         <v>18</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N6" s="10" t="n"/>
     </row>
@@ -850,25 +901,25 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="11" t="s">
+      <c r="K7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>21</v>
+      <c r="M7" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="N7" s="10" t="n"/>
     </row>
@@ -883,7 +934,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>17</v>
@@ -894,17 +945,17 @@
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="11" t="s">
+      <c r="K8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>21</v>
+      <c r="M8" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="N8" s="10" t="n"/>
     </row>
@@ -919,7 +970,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -934,13 +985,13 @@
         <v>18</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N9" s="10" t="n"/>
     </row>
@@ -955,25 +1006,25 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="11" t="s">
+      <c r="K10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>21</v>
+      <c r="M10" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N10" s="10" t="n"/>
     </row>
@@ -988,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -999,17 +1050,17 @@
       <c r="I11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="11" t="s">
+      <c r="K11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>21</v>
+      <c r="M11" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="N11" s="10" t="n"/>
     </row>
@@ -1024,7 +1075,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
@@ -1039,13 +1090,13 @@
         <v>18</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N12" s="10" t="n"/>
     </row>
@@ -1060,25 +1111,25 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="11" t="s">
+      <c r="K13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>21</v>
+      <c r="M13" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="N13" s="10" t="s"/>
     </row>
@@ -1171,7 +1222,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -1199,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -1227,13 +1278,13 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
@@ -1252,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
@@ -1280,7 +1331,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
@@ -1308,13 +1359,13 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J7" s="4" t="n"/>
       <c r="K7" s="4" t="n"/>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -74,26 +74,26 @@
     <t>200</t>
   </si>
   <si>
-    <t>3.572802</t>
+    <t>0.937311</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"e5c98ef0-e727-41d9-9772-2f0c9a592647","X-Request-Start":"1532073434151"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=1"}
+    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"e2879ad4-09a5-4a59-9ea5-b85a95241ead","X-Request-Start":"1532397289487"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=1"}
 </t>
   </si>
   <si>
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>0.975671</t>
+    <t>0.957452</t>
   </si>
   <si>
     <t>fail</t>
   </si>
   <si>
-    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"34690566-37e3-4860-a728-17e3e71c8e60","X-Request-Start":"1532073436579"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=2"}
+    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"be9611c6-0973-4015-90c4-a9e1ad24e60c","X-Request-Start":"1532397290659"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=2"}
 </t>
   </si>
   <si>
@@ -103,110 +103,110 @@
     <t>close</t>
   </si>
   <si>
-    <t>0.945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"ed6c2ccb-1ef9-4a6c-9ce5-6d7711d7933c","X-Request-Start":"1532073437689"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=3"}
+    <t>1.022339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"b70ac42f-ca44-4d48-9067-029b9e008060","X-Request-Start":"1532397291881"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=3"}
 </t>
   </si>
   <si>
     <t>{'show_env': 4}</t>
   </si>
   <si>
-    <t>0.983714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"046e5830-e4dc-4d11-9fda-6e1df4a16a4b","X-Request-Start":"1532073438909"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=4"}
+    <t>0.946726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"a7efd19d-567b-4a17-a258-f690350614d5","X-Request-Start":"1532397293055"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=4"}
 </t>
   </si>
   <si>
     <t>{'show_env': 5}</t>
   </si>
   <si>
-    <t>1.024516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"40ed31cc-00b7-4532-863d-22fab973c35a","X-Request-Start":"1532073440102"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=5"}
+    <t>0.986174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"64f84262-4747-435c-b5ed-0072a8a00072","X-Request-Start":"1532397294197"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=5"}
 </t>
   </si>
   <si>
     <t>{'show_env': 6}</t>
   </si>
   <si>
-    <t>0.950964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"513049e1-f6dd-445c-93c7-15b0ace8fd86","X-Request-Start":"1532073441195"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=6"}
+    <t>0.96831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"dc55eb58-5539-4aaf-b4dd-9502f6f0a900","X-Request-Start":"1532397295394"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=6"}
 </t>
   </si>
   <si>
     <t>{'show_env': 7}</t>
   </si>
   <si>
-    <t>0.946526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7b11c464-0d29-4f44-9457-02d750c647a5","X-Request-Start":"1532073442346"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=7"}
+    <t>0.976819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"f4996405-1e80-4101-89c6-066ae2729b3a","X-Request-Start":"1532397296539"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=7"}
 </t>
   </si>
   <si>
     <t>{'show_env': 8}</t>
   </si>
   <si>
-    <t>2.049584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"1c6d38be-363c-4610-97ed-74639817d88d","X-Request-Start":"1532073444562"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=8"}
+    <t>0.96077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7c7eae9e-2088-4735-8cbe-b9677b55596d","X-Request-Start":"1532397297648"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=8"}
 </t>
   </si>
   <si>
     <t>{'show_env': 9}</t>
   </si>
   <si>
-    <t>1.852357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"13160021-3a2d-4fe2-859e-131bbbc60f5a","X-Request-Start":"1532073446564"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=9"}
+    <t>0.988361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"9ca17069-ce4d-44d2-a1f1-cce931c68f5c","X-Request-Start":"1532397298772"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=9"}
 </t>
   </si>
   <si>
     <t>{'show_env': 10}</t>
   </si>
   <si>
-    <t>0.966398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"f6fc17e5-049c-441e-afaf-1cca7d1a3509","X-Request-Start":"1532073447722"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=10"}
+    <t>0.944772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7fe128c9-4035-4a46-a520-807eba146777","X-Request-Start":"1532397299954"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=10"}
 </t>
   </si>
   <si>
     <t>{'show_env': 11}</t>
   </si>
   <si>
-    <t>0.952278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"3a2d8b4d-01d3-4664-ab9b-295166d410bb","X-Request-Start":"1532073448816"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=11"}
+    <t>0.958761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"eb46d6cf-2984-4f26-bf18-19331926faf3","X-Request-Start":"1532397301091"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=11"}
 </t>
   </si>
   <si>
     <t>{'show_env': 12}</t>
   </si>
   <si>
-    <t>1.08438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"1afef6f8-4d55-4132-9828-19185e9e9002","X-Request-Start":"1530706832667"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=12"}
+    <t>0.979007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"ab7b046b-3381-4b71-a015-fd42ac6fe7f3","X-Request-Start":"1532397107663"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
 </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>0.993577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"b7b6b352-df63-406e-8574-26f1d0a15bbf","X-Request-Start":"1532073449973"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
+    <t>1.003115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"43c2e83f-cf1e-420e-9479-82d0f5cd57d6","X-Request-Start":"1532397302273"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
 </t>
   </si>
 </sst>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -74,26 +74,26 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.937311</t>
+    <t>0.953406</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"e2879ad4-09a5-4a59-9ea5-b85a95241ead","X-Request-Start":"1532397289487"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=1"}
+    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"0b4635d7-3595-4464-b204-9e73acd110fd","X-Request-Start":"1532420811384"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=1"}
 </t>
   </si>
   <si>
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>0.957452</t>
+    <t>0.966767</t>
   </si>
   <si>
     <t>fail</t>
   </si>
   <si>
-    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"be9611c6-0973-4015-90c4-a9e1ad24e60c","X-Request-Start":"1532397290659"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=2"}
+    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c045761e-0e12-4ffa-9922-bb9c031b4f66","X-Request-Start":"1532420812514"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=2"}
 </t>
   </si>
   <si>
@@ -103,110 +103,110 @@
     <t>close</t>
   </si>
   <si>
-    <t>1.022339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"b70ac42f-ca44-4d48-9067-029b9e008060","X-Request-Start":"1532397291881"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=3"}
+    <t>1.164083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"d4804b4d-1d4e-4dbf-9f28-a9cc39fe3d07","X-Request-Start":"1532420813864"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=3"}
 </t>
   </si>
   <si>
     <t>{'show_env': 4}</t>
   </si>
   <si>
-    <t>0.946726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"a7efd19d-567b-4a17-a258-f690350614d5","X-Request-Start":"1532397293055"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=4"}
+    <t>0.982862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"90b4d4a1-2de9-4336-b476-77f9b0a06449","X-Request-Start":"1532420815007"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=4"}
 </t>
   </si>
   <si>
     <t>{'show_env': 5}</t>
   </si>
   <si>
-    <t>0.986174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"64f84262-4747-435c-b5ed-0072a8a00072","X-Request-Start":"1532397294197"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=5"}
+    <t>1.137319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"e47f6d7e-cfba-42fc-afea-18aef77df0f3","X-Request-Start":"1532420816308"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=5"}
 </t>
   </si>
   <si>
     <t>{'show_env': 6}</t>
   </si>
   <si>
-    <t>0.96831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"dc55eb58-5539-4aaf-b4dd-9502f6f0a900","X-Request-Start":"1532397295394"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=6"}
+    <t>0.937934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"b00df35d-67bc-4b1c-a303-b0dbdcd03da9","X-Request-Start":"1532420817434"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=6"}
 </t>
   </si>
   <si>
     <t>{'show_env': 7}</t>
   </si>
   <si>
-    <t>0.976819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"f4996405-1e80-4101-89c6-066ae2729b3a","X-Request-Start":"1532397296539"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=7"}
+    <t>1.152266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"0db30b91-7f5c-40ed-bdde-7c7c1c8dc2c6","X-Request-Start":"1532420818759"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=7"}
 </t>
   </si>
   <si>
     <t>{'show_env': 8}</t>
   </si>
   <si>
-    <t>0.96077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7c7eae9e-2088-4735-8cbe-b9677b55596d","X-Request-Start":"1532397297648"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=8"}
+    <t>1.199188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"ec725dd7-5321-4166-b0d1-ad7e6ee10604","X-Request-Start":"1532420820095"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=8"}
 </t>
   </si>
   <si>
     <t>{'show_env': 9}</t>
   </si>
   <si>
-    <t>0.988361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"9ca17069-ce4d-44d2-a1f1-cce931c68f5c","X-Request-Start":"1532397298772"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=9"}
+    <t>1.125667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"9c145c23-b7fb-49e8-abb1-8a5dabf20f79","X-Request-Start":"1532420821356"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=9"}
 </t>
   </si>
   <si>
     <t>{'show_env': 10}</t>
   </si>
   <si>
-    <t>0.944772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7fe128c9-4035-4a46-a520-807eba146777","X-Request-Start":"1532397299954"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=10"}
+    <t>0.946379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"27dcda63-b41e-41b8-9567-ca7895188ed6","X-Request-Start":"1532420822601"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=10"}
 </t>
   </si>
   <si>
     <t>{'show_env': 11}</t>
   </si>
   <si>
-    <t>0.958761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"eb46d6cf-2984-4f26-bf18-19331926faf3","X-Request-Start":"1532397301091"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=11"}
+    <t>1.209313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"2b7c1a6d-5f59-405e-8cce-d13f90ad1d99","X-Request-Start":"1532420823989"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=11"}
 </t>
   </si>
   <si>
     <t>{'show_env': 12}</t>
   </si>
   <si>
-    <t>0.979007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"ab7b046b-3381-4b71-a015-fd42ac6fe7f3","X-Request-Start":"1532397107663"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
+    <t>1.003115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"43c2e83f-cf1e-420e-9479-82d0f5cd57d6","X-Request-Start":"1532397302273"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
 </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>1.003115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"43c2e83f-cf1e-420e-9479-82d0f5cd57d6","X-Request-Start":"1532397302273"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
+    <t>0.960497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"acf11493-bae0-404a-8d3b-324b670f2734","X-Request-Start":"1532420825087"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
 </t>
   </si>
 </sst>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AProjectCode\Pycharm-Projects\python3_interface\test_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{13B0DAD4-F883-439D-A906-C6A0E1A0DE05}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7950" windowWidth="20390" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="7950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="test2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="test2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -193,87 +199,75 @@
     <t>{'show_env': 12}</t>
   </si>
   <si>
-    <t>1.003115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"43c2e83f-cf1e-420e-9479-82d0f5cd57d6","X-Request-Start":"1532397302273"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>0.960497</t>
   </si>
   <si>
     <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"acf11493-bae0-404a-8d3b-324b670f2734","X-Request-Start":"1532420825087"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
 </t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pgsheng</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="00000000"/>
-    </font>
-    <font>
-      <color rgb="00FF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -310,50 +304,47 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -641,35 +632,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="5.6328125"/>
-    <col customWidth="1" max="2" min="2" width="23.36328125"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="10.1796875"/>
-    <col customWidth="1" max="5" min="5" width="15.1796875"/>
-    <col customWidth="1" max="6" min="6" width="9"/>
-    <col customWidth="1" max="7" min="7" width="7.26953125"/>
-    <col customWidth="1" max="8" min="8" width="11"/>
-    <col customWidth="1" max="9" min="9" width="7.26953125"/>
-    <col customWidth="1" max="10" min="10" width="8.1796875"/>
-    <col customWidth="1" max="11" min="11" width="9.1796875"/>
-    <col customWidth="1" max="13" min="13" width="19.90625"/>
-    <col customWidth="1" max="14" min="14" style="5" width="10.54296875"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" customWidth="1"/>
+    <col min="13" max="13" width="19.90625" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="40" r="1" s="1" spans="1:14">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,8 +700,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="43" r="2" s="1" spans="1:14">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -729,28 +716,28 @@
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>200</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="3" s="1" spans="1:14">
-      <c r="A3" s="1" t="n">
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -765,28 +752,28 @@
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>201</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="4" s="1" spans="1:14">
-      <c r="A4" s="1" t="n">
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -804,22 +791,22 @@
       <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="5" s="1" spans="1:14">
-      <c r="A5" s="1" t="n">
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -834,28 +821,28 @@
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1">
         <v>200</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="6" s="1" spans="1:14">
-      <c r="A6" s="1" t="n">
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -870,28 +857,28 @@
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1">
         <v>201</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="7" s="1" spans="1:14">
-      <c r="A7" s="1" t="n">
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -909,22 +896,22 @@
       <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="8" s="1" spans="1:14">
-      <c r="A8" s="1" t="n">
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -939,28 +926,28 @@
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1">
         <v>200</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="9" s="1" spans="1:14">
-      <c r="A9" s="1" t="n">
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -975,28 +962,28 @@
       <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="1">
         <v>201</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="10" s="1" spans="1:14">
-      <c r="A10" s="1" t="n">
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1014,22 +1001,22 @@
       <c r="H10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="11" s="1" spans="1:14">
-      <c r="A11" s="1" t="n">
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1044,28 +1031,28 @@
       <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="1">
         <v>200</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="12" s="1" spans="1:14">
-      <c r="A12" s="1" t="n">
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1080,28 +1067,28 @@
       <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="1">
         <v>201</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="13" s="1" spans="1:14">
-      <c r="A13" s="1" t="n">
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1119,269 +1106,70 @@
       <c r="H13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="9" t="s">
+      <c r="K13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" s="10" t="s"/>
+      <c r="M13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" tooltip="https://httpbin.org/get" r:id="rId1"/>
-    <hyperlink ref="B3" tooltip="https://httpbin.org/get" r:id="rId2"/>
-    <hyperlink ref="B4" tooltip="https://httpbin.org/get" r:id="rId3"/>
-    <hyperlink ref="B5" tooltip="https://httpbin.org/get" r:id="rId4"/>
-    <hyperlink ref="B6" tooltip="https://httpbin.org/get" r:id="rId5"/>
-    <hyperlink ref="B7" tooltip="https://httpbin.org/get" r:id="rId6"/>
-    <hyperlink ref="B8" tooltip="https://httpbin.org/get" r:id="rId7"/>
-    <hyperlink ref="B9" tooltip="https://httpbin.org/get" r:id="rId8"/>
-    <hyperlink ref="B10" tooltip="https://httpbin.org/get" r:id="rId9"/>
-    <hyperlink ref="B11" tooltip="https://httpbin.org/get" r:id="rId10"/>
-    <hyperlink ref="B12" tooltip="https://httpbin.org/get" r:id="rId11"/>
-    <hyperlink ref="B13" tooltip="https://httpbin.org/get" r:id="rId12"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="landscape" paperSize="3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="3" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="40" r="1" s="1" spans="1:14">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="2" s="1" spans="1:14">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="I2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="5" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="3" s="1" spans="1:14">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n"/>
-      <c r="N3" s="5" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="4" s="1" spans="1:14">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
-      <c r="L4" s="4" t="n"/>
-      <c r="M4" s="4" t="n"/>
-      <c r="N4" s="5" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="5" s="1" spans="1:14">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4" t="n"/>
-      <c r="K5" s="4" t="n"/>
-      <c r="L5" s="4" t="n"/>
-      <c r="M5" s="4" t="n"/>
-      <c r="N5" s="5" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="6" s="1" spans="1:14">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="I6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
-      <c r="L6" s="4" t="n"/>
-      <c r="M6" s="4" t="n"/>
-      <c r="N6" s="5" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="7" s="1" spans="1:14">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="4" t="n"/>
-      <c r="K7" s="4" t="n"/>
-      <c r="L7" s="4" t="n"/>
-      <c r="M7" s="4" t="n"/>
-      <c r="N7" s="5" t="n"/>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" tooltip="https://httpbin.org/get" r:id="rId1"/>
-    <hyperlink ref="B3" tooltip="https://httpbin.org/get" r:id="rId2"/>
-    <hyperlink ref="B4" tooltip="https://httpbin.org/get" r:id="rId3"/>
-    <hyperlink ref="B5" tooltip="https://httpbin.org/get" r:id="rId4"/>
-    <hyperlink ref="B6" tooltip="https://httpbin.org/get" r:id="rId5"/>
-    <hyperlink ref="B7" tooltip="https://httpbin.org/get" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AProjectCode\Pycharm-Projects\python3_interface\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{13B0DAD4-F883-439D-A906-C6A0E1A0DE05}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC9524C2-5624-4652-A311-519C442ED023}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="7950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="7950" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="test2" sheetId="2" r:id="rId2"/>
+    <sheet name="test3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -216,13 +217,28 @@
   <si>
     <t>pgsheng</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="kw"]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="su"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +279,20 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -307,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -330,6 +360,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1145,7 +1179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1172,4 +1206,41 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF1B0A8-E431-4674-8B0A-866528391EAA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AProjectCode\Pycharm-Projects\python3_interface\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC9524C2-5624-4652-A311-519C442ED023}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5FCF6FD5-2999-4AA4-A0BA-9C0880B90DAA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="7950" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="7950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -215,10 +215,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>pgsheng</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>input</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -232,6 +228,14 @@
   </si>
   <si>
     <t>//*[@id="su"]</t>
+  </si>
+  <si>
+    <t>sheng</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1177,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1203,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF1B0A8-E431-4674-8B0A-866528391EAA}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1224,18 +1236,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AProjectCode\Pycharm-Projects\python3_interface\test_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5FCF6FD5-2999-4AA4-A0BA-9C0880B90DAA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="7950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="7950" windowWidth="20390" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
-    <sheet name="test2" sheetId="2" r:id="rId2"/>
-    <sheet name="test3" sheetId="3" r:id="rId3"/>
+    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -81,26 +75,70 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.953406</t>
+    <t>2.69553</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"0b4635d7-3595-4464-b204-9e73acd110fd","X-Request-Start":"1532420811384"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=1"}
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "1"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "63d68c68-0a6e-4c23-8cda-25aea4a6b567", 
+    "X-Request-Start": "1532962539949"
+  }, 
+  "origin": "183.2.198.164", 
+  "url": "https://httpbin.org/get?show_env=1"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>0.966767</t>
+    <t>1.143455</t>
   </si>
   <si>
     <t>fail</t>
   </si>
   <si>
-    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c045761e-0e12-4ffa-9922-bb9c031b4f66","X-Request-Start":"1532420812514"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=2"}
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "2"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "8c421a43-b82d-4c42-82fa-ea5502e2b62d", 
+    "X-Request-Start": "1532962541304"
+  }, 
+  "origin": "183.2.198.164", 
+  "url": "https://httpbin.org/get?show_env=2"
+}
 </t>
   </si>
   <si>
@@ -110,198 +148,444 @@
     <t>close</t>
   </si>
   <si>
-    <t>1.164083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"d4804b4d-1d4e-4dbf-9f28-a9cc39fe3d07","X-Request-Start":"1532420813864"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=3"}
+    <t>1.079162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "3"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "5d6f6d95-35cb-4c38-8fb6-f2eb230e323d", 
+    "X-Request-Start": "1532962542627"
+  }, 
+  "origin": "183.2.198.164", 
+  "url": "https://httpbin.org/get?show_env=3"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 4}</t>
   </si>
   <si>
-    <t>0.982862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"90b4d4a1-2de9-4336-b476-77f9b0a06449","X-Request-Start":"1532420815007"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=4"}
+    <t>0.966969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "4"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "68500b0a-1d8b-4399-9786-d06554b975f7", 
+    "X-Request-Start": "1532962543795"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=4"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 5}</t>
   </si>
   <si>
-    <t>1.137319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"e47f6d7e-cfba-42fc-afea-18aef77df0f3","X-Request-Start":"1532420816308"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=5"}
+    <t>2.156589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "5"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "795089f2-1ec4-4e89-9d3d-f5002d550b02", 
+    "X-Request-Start": "1532962546144"
+  }, 
+  "origin": "183.2.198.164", 
+  "url": "https://httpbin.org/get?show_env=5"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 6}</t>
   </si>
   <si>
-    <t>0.937934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"b00df35d-67bc-4b1c-a303-b0dbdcd03da9","X-Request-Start":"1532420817434"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=6"}
+    <t>0.96787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "6"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "026246a4-3895-432c-a345-42d8ad4fa920", 
+    "X-Request-Start": "1532962547369"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=6"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 7}</t>
   </si>
   <si>
-    <t>1.152266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"0db30b91-7f5c-40ed-bdde-7c7c1c8dc2c6","X-Request-Start":"1532420818759"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=7"}
+    <t>0.961429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "7"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "4c4cab99-83ab-4f4b-868b-ec83e8c25dbf", 
+    "X-Request-Start": "1532962548730"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=7"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 8}</t>
   </si>
   <si>
-    <t>1.199188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"ec725dd7-5321-4166-b0d1-ad7e6ee10604","X-Request-Start":"1532420820095"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=8"}
+    <t>0.992165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "8"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "4", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "482e41eb-71ca-4235-944f-2a5001df7bc0", 
+    "X-Request-Start": "1532962549896"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=8"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 9}</t>
   </si>
   <si>
-    <t>1.125667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"9c145c23-b7fb-49e8-abb1-8a5dabf20f79","X-Request-Start":"1532420821356"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=9"}
+    <t>4.365889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "9"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "c78455b3-80c3-4657-a073-4f1fd0c73bb8", 
+    "X-Request-Start": "1532962554593"
+  }, 
+  "origin": "183.2.198.164", 
+  "url": "https://httpbin.org/get?show_env=9"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 10}</t>
   </si>
   <si>
-    <t>0.946379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"27dcda63-b41e-41b8-9567-ca7895188ed6","X-Request-Start":"1532420822601"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=10"}
+    <t>1.020708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "10"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "0e23af41-1bf9-402c-b5fa-b4ab17d247ac", 
+    "X-Request-Start": "1532962555855"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=10"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 11}</t>
   </si>
   <si>
-    <t>1.209313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"2b7c1a6d-5f59-405e-8cce-d13f90ad1d99","X-Request-Start":"1532420823989"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=11"}
+    <t>1.057998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "11"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.165", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "20b7bbb6-9585-48b5-9be0-2da83cc667be", 
+    "X-Request-Start": "1532962557108"
+  }, 
+  "origin": "183.2.198.165", 
+  "url": "https://httpbin.org/get?show_env=11"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 12}</t>
   </si>
   <si>
-    <t>0.960497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"acf11493-bae0-404a-8d3b-324b670f2734","X-Request-Start":"1532420825087"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
+    <t>1.077821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "12"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.166", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "e7aa58cc-d4fb-434e-9a63-d1dd6d739b95", 
+    "X-Request-Start": "1532962442544"
+  }, 
+  "origin": "183.2.198.166", 
+  "url": "https://httpbin.org/get?show_env=12"
+}
 </t>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>sheng</t>
   </si>
   <si>
     <t>input</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
   </si>
   <si>
     <t>//input[@id="kw"]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>search</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="su"]</t>
   </si>
   <si>
-    <t>sheng</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>3.137912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "12"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.165", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "42fedfc4-9e71-4adc-ad7d-9c84612255fa", 
+    "X-Request-Start": "1532962560507"
+  }, 
+  "origin": "183.2.198.165", 
+  "url": "https://httpbin.org/get?show_env=12"
+}
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="10">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="7.5"/>
-      <color rgb="FF6A8759"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color rgb="FF6A8759"/>
+      <sz val="7.5"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -338,51 +622,51 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -670,31 +954,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="7.26953125" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" customWidth="1"/>
-    <col min="13" max="13" width="19.90625" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" style="4" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="5.6328125"/>
+    <col customWidth="1" max="2" min="2" width="23.36328125"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="10.1796875"/>
+    <col customWidth="1" max="5" min="5" width="15.1796875"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="7.26953125"/>
+    <col customWidth="1" max="8" min="8" width="11"/>
+    <col customWidth="1" max="9" min="9" width="7.26953125"/>
+    <col customWidth="1" max="10" min="10" width="8.1796875"/>
+    <col customWidth="1" max="11" min="11" width="9.1796875"/>
+    <col customWidth="1" max="13" min="13" width="19.90625"/>
+    <col customWidth="1" max="14" min="14" style="4" width="10.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="40" r="1" s="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,8 +1026,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row customFormat="1" customHeight="1" ht="43" r="2" s="1" spans="1:14">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -754,28 +1042,28 @@
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="1" t="n">
         <v>200</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="N2" s="11" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="3" s="1" spans="1:14">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -790,28 +1078,28 @@
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="1" t="n">
         <v>201</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="N3" s="11" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="4" s="1" spans="1:14">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -829,22 +1117,22 @@
       <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="N4" s="11" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="5" s="1" spans="1:14">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -859,28 +1147,28 @@
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="1" t="n">
         <v>200</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="N5" s="11" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="6" s="1" spans="1:14">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -895,28 +1183,28 @@
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="1" t="n">
         <v>201</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="N6" s="11" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="7" s="1" spans="1:14">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -934,22 +1222,22 @@
       <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="N7" s="11" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="8" s="1" spans="1:14">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -964,28 +1252,28 @@
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="1" t="n">
         <v>200</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="N8" s="11" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="9" s="1" spans="1:14">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1000,28 +1288,28 @@
       <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="1" t="n">
         <v>201</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="N9" s="11" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="10" s="1" spans="1:14">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1039,22 +1327,22 @@
       <c r="H10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="N10" s="11" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="11" s="1" spans="1:14">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1069,28 +1357,28 @@
       <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="1" t="n">
         <v>200</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="N11" s="11" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="12" s="1" spans="1:14">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1105,28 +1393,28 @@
       <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="1" t="n">
         <v>201</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="N12" s="11" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="43" r="13" s="1" spans="1:14">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1144,115 +1432,120 @@
       <c r="H13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="5" t="s">
+      <c r="K13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="6"/>
+      <c r="M13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="11" t="s"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" tooltip="https://httpbin.org/get" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B2" tooltip="https://httpbin.org/get" r:id="rId1"/>
+    <hyperlink ref="B3" tooltip="https://httpbin.org/get" r:id="rId2"/>
+    <hyperlink ref="B4" tooltip="https://httpbin.org/get" r:id="rId3"/>
+    <hyperlink ref="B5" tooltip="https://httpbin.org/get" r:id="rId4"/>
+    <hyperlink ref="B6" tooltip="https://httpbin.org/get" r:id="rId5"/>
+    <hyperlink ref="B7" tooltip="https://httpbin.org/get" r:id="rId6"/>
+    <hyperlink ref="B8" tooltip="https://httpbin.org/get" r:id="rId7"/>
+    <hyperlink ref="B9" tooltip="https://httpbin.org/get" r:id="rId8"/>
+    <hyperlink ref="B10" tooltip="https://httpbin.org/get" r:id="rId9"/>
+    <hyperlink ref="B11" tooltip="https://httpbin.org/get" r:id="rId10"/>
+    <hyperlink ref="B12" tooltip="https://httpbin.org/get" r:id="rId11"/>
+    <hyperlink ref="B13" tooltip="https://httpbin.org/get" r:id="rId12"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" orientation="landscape"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="landscape" paperSize="3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="40" r="1" s="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="n"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF1B0A8-E431-4674-8B0A-866528391EAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="15.90625"/>
+    <col customWidth="1" max="2" min="2" width="13.90625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -75,7 +75,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>2.69553</t>
+    <t>3.140086</t>
   </si>
   <si>
     <t>pass</t>
@@ -95,13 +95,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.18.4", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-For": "183.240.20.27", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "63d68c68-0a6e-4c23-8cda-25aea4a6b567", 
-    "X-Request-Start": "1532962539949"
-  }, 
-  "origin": "183.2.198.164", 
+    "X-Request-Id": "2902e183-a6eb-4caf-9a85-fc883f945e16", 
+    "X-Request-Start": "1533134490196"
+  }, 
+  "origin": "183.240.20.27", 
   "url": "https://httpbin.org/get?show_env=1"
 }
 </t>
@@ -110,7 +110,7 @@
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>1.143455</t>
+    <t>1.371314</t>
   </si>
   <si>
     <t>fail</t>
@@ -119,6 +119,73 @@
     <t xml:space="preserve">{
   "args": {
     "show_env": "2"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "8191207d-2d03-49f3-a9f5-cd8db85d5949", 
+    "X-Request-Start": "1533134491900"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=2"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 3}</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>1.32338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "3"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "8dc2137e-0608-4afe-94e9-eae455fdfc8b", 
+    "X-Request-Start": "1533134493473"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=3"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 4}</t>
+  </si>
+  <si>
+    <t>4.6303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "4"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -133,27 +200,56 @@
     "X-Forwarded-For": "183.2.198.164", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "8c421a43-b82d-4c42-82fa-ea5502e2b62d", 
-    "X-Request-Start": "1532962541304"
+    "X-Request-Id": "7dce1573-08bd-4ec7-829a-98e9962bc812", 
+    "X-Request-Start": "1533134498333"
   }, 
   "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=2"
+  "url": "https://httpbin.org/get?show_env=4"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 3}</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>1.079162</t>
+    <t>{'show_env': 5}</t>
+  </si>
+  <si>
+    <t>2.237877</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "3"
+    "show_env": "5"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.167", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "cddf1c36-7db0-4362-9a08-c450af6d97c1", 
+    "X-Request-Start": "1533134500828"
+  }, 
+  "origin": "183.2.198.167", 
+  "url": "https://httpbin.org/get?show_env=5"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 6}</t>
+  </si>
+  <si>
+    <t>3.109158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "6"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -168,24 +264,120 @@
     "X-Forwarded-For": "183.2.198.164", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "5d6f6d95-35cb-4c38-8fb6-f2eb230e323d", 
-    "X-Request-Start": "1532962542627"
+    "X-Request-Id": "44ffc8f1-8def-4ed0-bd64-583088b096a3", 
+    "X-Request-Start": "1533134504200"
   }, 
   "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=3"
+  "url": "https://httpbin.org/get?show_env=6"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 4}</t>
-  </si>
-  <si>
-    <t>0.966969</t>
+    <t>{'show_env': 7}</t>
+  </si>
+  <si>
+    <t>1.693949</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "4"
+    "show_env": "7"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "71", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "fb32d02b-0b98-4227-a1bc-7b95d9cef209", 
+    "X-Request-Start": "1533134505930"
+  }, 
+  "origin": "183.2.198.164", 
+  "url": "https://httpbin.org/get?show_env=7"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 8}</t>
+  </si>
+  <si>
+    <t>2.145183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "8"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "67d41248-710f-4f00-9f3d-9a6689193bdb", 
+    "X-Request-Start": "1533134508544"
+  }, 
+  "origin": "183.2.198.164", 
+  "url": "https://httpbin.org/get?show_env=8"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 9}</t>
+  </si>
+  <si>
+    <t>1.778264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "9"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "3ad6d6dc-a64a-43ac-b25c-1b80da1b76dc", 
+    "X-Request-Start": "1533134510557"
+  }, 
+  "origin": "183.2.198.164", 
+  "url": "https://httpbin.org/get?show_env=9"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 10}</t>
+  </si>
+  <si>
+    <t>22.408393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "10"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -200,24 +392,56 @@
     "X-Forwarded-For": "183.240.20.27", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "68500b0a-1d8b-4399-9786-d06554b975f7", 
-    "X-Request-Start": "1532962543795"
+    "X-Request-Id": "ee2b0742-519f-426f-96e9-7fa731cc4f9c", 
+    "X-Request-Start": "1533134533235"
   }, 
   "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=4"
+  "url": "https://httpbin.org/get?show_env=10"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 5}</t>
-  </si>
-  <si>
-    <t>2.156589</t>
+    <t>{'show_env': 11}</t>
+  </si>
+  <si>
+    <t>3.299148</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "5"
+    "show_env": "11"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "2", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.165", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "5eb5f6a2-11f6-4cdd-92ba-44d5b6ed599a", 
+    "X-Request-Start": "1533134536728"
+  }, 
+  "origin": "183.2.198.165", 
+  "url": "https://httpbin.org/get?show_env=11"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 12}</t>
+  </si>
+  <si>
+    <t>1.425616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "12"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -229,237 +453,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.18.4", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.164", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "795089f2-1ec4-4e89-9d3d-f5002d550b02", 
-    "X-Request-Start": "1532962546144"
-  }, 
-  "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=5"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 6}</t>
-  </si>
-  <si>
-    <t>0.96787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "6"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
     "X-Forwarded-For": "183.240.20.27", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "026246a4-3895-432c-a345-42d8ad4fa920", 
-    "X-Request-Start": "1532962547369"
+    "X-Request-Id": "13959957-eb54-4a7f-a50e-e9bed4d77219", 
+    "X-Request-Start": "1533132022394"
   }, 
   "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=6"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 7}</t>
-  </si>
-  <si>
-    <t>0.961429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "7"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "4c4cab99-83ab-4f4b-868b-ec83e8c25dbf", 
-    "X-Request-Start": "1532962548730"
-  }, 
-  "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=7"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 8}</t>
-  </si>
-  <si>
-    <t>0.992165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "8"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "4", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "482e41eb-71ca-4235-944f-2a5001df7bc0", 
-    "X-Request-Start": "1532962549896"
-  }, 
-  "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=8"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 9}</t>
-  </si>
-  <si>
-    <t>4.365889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "9"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.164", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "c78455b3-80c3-4657-a073-4f1fd0c73bb8", 
-    "X-Request-Start": "1532962554593"
-  }, 
-  "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=9"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 10}</t>
-  </si>
-  <si>
-    <t>1.020708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "10"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "0e23af41-1bf9-402c-b5fa-b4ab17d247ac", 
-    "X-Request-Start": "1532962555855"
-  }, 
-  "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=10"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 11}</t>
-  </si>
-  <si>
-    <t>1.057998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "11"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.165", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "20b7bbb6-9585-48b5-9be0-2da83cc667be", 
-    "X-Request-Start": "1532962557108"
-  }, 
-  "origin": "183.2.198.165", 
-  "url": "https://httpbin.org/get?show_env=11"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 12}</t>
-  </si>
-  <si>
-    <t>1.077821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "12"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.166", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "e7aa58cc-d4fb-434e-9a63-d1dd6d739b95", 
-    "X-Request-Start": "1532962442544"
-  }, 
-  "origin": "183.2.198.166", 
   "url": "https://httpbin.org/get?show_env=12"
 }
 </t>
@@ -486,7 +486,7 @@
     <t>//*[@id="su"]</t>
   </si>
   <si>
-    <t>3.137912</t>
+    <t>1.427977</t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -503,13 +503,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.18.4", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.165", 
+    "X-Forwarded-For": "183.240.20.27", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "42fedfc4-9e71-4adc-ad7d-9c84612255fa", 
-    "X-Request-Start": "1532962560507"
-  }, 
-  "origin": "183.2.198.165", 
+    "X-Request-Id": "fb0c2a65-489e-422f-9782-072c6445941a", 
+    "X-Request-Start": "1533134538374"
+  }, 
+  "origin": "183.240.20.27", 
   "url": "https://httpbin.org/get?show_env=12"
 }
 </t>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7950" windowWidth="20390" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7950" windowWidth="20390" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>3.140086</t>
+    <t>1.074733</t>
   </si>
   <si>
     <t>pass</t>
@@ -84,6 +84,41 @@
     <t xml:space="preserve">{
   "args": {
     "show_env": "1"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "d2e562d6-b643-44d8-8d99-0ca075fc1512", 
+    "X-Request-Start": "1533644922679"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=1"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 2}</t>
+  </si>
+  <si>
+    <t>0.993629</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "2"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -93,32 +128,64 @@
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
+    "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
     "X-Forwarded-For": "183.240.20.27", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "2902e183-a6eb-4caf-9a85-fc883f945e16", 
-    "X-Request-Start": "1533134490196"
+    "X-Request-Id": "84f60262-d489-4016-b4b7-18d8db494bce", 
+    "X-Request-Start": "1533644923905"
   }, 
   "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=1"
+  "url": "https://httpbin.org/get?show_env=2"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 2}</t>
-  </si>
-  <si>
-    <t>1.371314</t>
-  </si>
-  <si>
-    <t>fail</t>
+    <t>{'show_env': 3}</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>0.976106</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "2"
+    "show_env": "3"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "fd56ee7b-dc68-45a8-bc79-018afed343c3", 
+    "X-Request-Start": "1533644925097"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=3"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 4}</t>
+  </si>
+  <si>
+    <t>1.029632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "4"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -128,32 +195,157 @@
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.19.59", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "b0cb0a8f-3ff6-42a8-8595-226c110ad614", 
+    "X-Request-Start": "1533644926363"
+  }, 
+  "origin": "183.240.19.59", 
+  "url": "https://httpbin.org/get?show_env=4"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 5}</t>
+  </si>
+  <si>
+    <t>1.007777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "5"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.19.59", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "d5b91a19-59e8-4c27-9416-19882ff24c03", 
+    "X-Request-Start": "1533644927605"
+  }, 
+  "origin": "183.240.19.59", 
+  "url": "https://httpbin.org/get?show_env=5"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 6}</t>
+  </si>
+  <si>
+    <t>1.027611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "6"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.19.59", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "ab012f8c-c92e-42c4-93c4-4bdf71a8921e", 
+    "X-Request-Start": "1533644928860"
+  }, 
+  "origin": "183.240.19.59", 
+  "url": "https://httpbin.org/get?show_env=6"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 7}</t>
+  </si>
+  <si>
+    <t>0.981192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "7"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
     "X-Forwarded-For": "183.240.20.27", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "8191207d-2d03-49f3-a9f5-cd8db85d5949", 
-    "X-Request-Start": "1533134491900"
+    "X-Request-Id": "3a689aa9-5f03-4d7c-8229-ce144a4ab10d", 
+    "X-Request-Start": "1533644930049"
   }, 
   "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=2"
+  "url": "https://httpbin.org/get?show_env=7"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 3}</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>1.32338</t>
+    <t>{'show_env': 8}</t>
+  </si>
+  <si>
+    <t>1.036124</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "3"
+    "show_env": "8"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.19.59", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "4d196d36-221b-482b-a6e3-04fe6e4df4ea", 
+    "X-Request-Start": "1533644931309"
+  }, 
+  "origin": "183.240.19.59", 
+  "url": "https://httpbin.org/get?show_env=8"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 9}</t>
+  </si>
+  <si>
+    <t>1.002032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "9"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -163,29 +355,29 @@
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
+    "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-For": "183.240.19.59", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "8dc2137e-0608-4afe-94e9-eae455fdfc8b", 
-    "X-Request-Start": "1533134493473"
-  }, 
-  "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=3"
+    "X-Request-Id": "71c1bac0-3011-4d39-985e-f78a4fd5802a", 
+    "X-Request-Start": "1533644932552"
+  }, 
+  "origin": "183.240.19.59", 
+  "url": "https://httpbin.org/get?show_env=9"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 4}</t>
-  </si>
-  <si>
-    <t>4.6303</t>
+    <t>{'show_env': 10}</t>
+  </si>
+  <si>
+    <t>0.971456</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "4"
+    "show_env": "10"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -195,61 +387,29 @@
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
+    "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-For": "183.240.19.59", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "7dce1573-08bd-4ec7-829a-98e9962bc812", 
-    "X-Request-Start": "1533134498333"
-  }, 
-  "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=4"
+    "X-Request-Id": "01a6161d-e30b-422a-be57-14d90048310c", 
+    "X-Request-Start": "1533644933747"
+  }, 
+  "origin": "183.240.19.59", 
+  "url": "https://httpbin.org/get?show_env=10"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 5}</t>
-  </si>
-  <si>
-    <t>2.237877</t>
+    <t>{'show_env': 11}</t>
+  </si>
+  <si>
+    <t>1.987692</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "5"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.167", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "cddf1c36-7db0-4362-9a08-c450af6d97c1", 
-    "X-Request-Start": "1533134500828"
-  }, 
-  "origin": "183.2.198.167", 
-  "url": "https://httpbin.org/get?show_env=5"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 6}</t>
-  </si>
-  <si>
-    <t>3.109158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "6"
+    "show_env": "11"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -259,61 +419,29 @@
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
+    "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-For": "183.240.20.27", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "44ffc8f1-8def-4ed0-bd64-583088b096a3", 
-    "X-Request-Start": "1533134504200"
-  }, 
-  "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=6"
+    "X-Request-Id": "00637df5-7f65-42d6-8d5d-58a9e76267ec", 
+    "X-Request-Start": "1533644935967"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=11"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 7}</t>
-  </si>
-  <si>
-    <t>1.693949</t>
+    <t>{'show_env': 12}</t>
+  </si>
+  <si>
+    <t>2.326002</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "7"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "71", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.164", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "fb32d02b-0b98-4227-a1bc-7b95d9cef209", 
-    "X-Request-Start": "1533134505930"
-  }, 
-  "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=7"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 8}</t>
-  </si>
-  <si>
-    <t>2.145183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "8"
+    "show_env": "12"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -323,29 +451,47 @@
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
+    "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-For": "183.240.19.59", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "67d41248-710f-4f00-9f3d-9a6689193bdb", 
-    "X-Request-Start": "1533134508544"
-  }, 
-  "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=8"
+    "X-Request-Id": "abe388ca-ed1c-466b-a0ba-902571fd21c5", 
+    "X-Request-Start": "1533644829301"
+  }, 
+  "origin": "183.240.19.59", 
+  "url": "https://httpbin.org/get?show_env=12"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 9}</t>
-  </si>
-  <si>
-    <t>1.778264</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>sheng</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>//input[@id="kw"]</t>
+  </si>
+  <si>
+    <t>//*[@id="su"]</t>
+  </si>
+  <si>
+    <t>1.001936</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "9"
+    "show_env": "12"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -355,161 +501,15 @@
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
+    "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-For": "183.240.19.59", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "3ad6d6dc-a64a-43ac-b25c-1b80da1b76dc", 
-    "X-Request-Start": "1533134510557"
-  }, 
-  "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=9"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 10}</t>
-  </si>
-  <si>
-    <t>22.408393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "10"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "ee2b0742-519f-426f-96e9-7fa731cc4f9c", 
-    "X-Request-Start": "1533134533235"
-  }, 
-  "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=10"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 11}</t>
-  </si>
-  <si>
-    <t>3.299148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "11"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "2", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.165", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "5eb5f6a2-11f6-4cdd-92ba-44d5b6ed599a", 
-    "X-Request-Start": "1533134536728"
-  }, 
-  "origin": "183.2.198.165", 
-  "url": "https://httpbin.org/get?show_env=11"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 12}</t>
-  </si>
-  <si>
-    <t>1.425616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "12"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "13959957-eb54-4a7f-a50e-e9bed4d77219", 
-    "X-Request-Start": "1533132022394"
-  }, 
-  "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=12"
-}
-</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>sheng</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>//input[@id="kw"]</t>
-  </si>
-  <si>
-    <t>//*[@id="su"]</t>
-  </si>
-  <si>
-    <t>1.427977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "12"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "fb0c2a65-489e-422f-9782-072c6445941a", 
-    "X-Request-Start": "1533134538374"
-  }, 
-  "origin": "183.240.20.27", 
+    "X-Request-Id": "a95a4568-33f0-404f-b119-2fe2222aa27e", 
+    "X-Request-Start": "1533644937258"
+  }, 
+  "origin": "183.240.19.59", 
   "url": "https://httpbin.org/get?show_env=12"
 }
 </t>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -75,7 +75,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>1.074733</t>
+    <t>12.189655</t>
   </si>
   <si>
     <t>pass</t>
@@ -95,13 +95,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-For": "183.2.198.167", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "d2e562d6-b643-44d8-8d99-0ca075fc1512", 
-    "X-Request-Start": "1533644922679"
-  }, 
-  "origin": "183.240.20.27", 
+    "X-Request-Id": "bdcd2510-ad51-48ed-80e8-e58f49d3836e", 
+    "X-Request-Start": "1534051143546"
+  }, 
+  "origin": "183.2.198.167", 
   "url": "https://httpbin.org/get?show_env=1"
 }
 </t>
@@ -110,7 +110,7 @@
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>0.993629</t>
+    <t>0.973423</t>
   </si>
   <si>
     <t>fail</t>
@@ -130,13 +130,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-For": "183.2.198.167", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "84f60262-d489-4016-b4b7-18d8db494bce", 
-    "X-Request-Start": "1533644923905"
-  }, 
-  "origin": "183.240.20.27", 
+    "X-Request-Id": "99de6341-ce5c-4945-85d0-ef2d2268b24e", 
+    "X-Request-Start": "1534051144753"
+  }, 
+  "origin": "183.2.198.167", 
   "url": "https://httpbin.org/get?show_env=2"
 }
 </t>
@@ -148,7 +148,7 @@
     <t>close</t>
   </si>
   <si>
-    <t>0.976106</t>
+    <t>0.96962</t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -165,13 +165,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-For": "183.240.20.28", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "fd56ee7b-dc68-45a8-bc79-018afed343c3", 
-    "X-Request-Start": "1533644925097"
-  }, 
-  "origin": "183.240.20.27", 
+    "X-Request-Id": "41ecccbe-5606-49d6-8876-169ec745b69a", 
+    "X-Request-Start": "1534051145968"
+  }, 
+  "origin": "183.240.20.28", 
   "url": "https://httpbin.org/get?show_env=3"
 }
 </t>
@@ -180,12 +180,44 @@
     <t>{'show_env': 4}</t>
   </si>
   <si>
-    <t>1.029632</t>
+    <t>2.126891</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
     "show_env": "4"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.167", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "f40f3f9b-057b-49d4-b438-33114450ce1d", 
+    "X-Request-Start": "1534051148201"
+  }, 
+  "origin": "183.2.198.167", 
+  "url": "https://httpbin.org/get?show_env=4"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 5}</t>
+  </si>
+  <si>
+    <t>1.020114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "5"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -197,27 +229,123 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.19.59", 
+    "X-Forwarded-For": "183.240.20.28", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "b0cb0a8f-3ff6-42a8-8595-226c110ad614", 
-    "X-Request-Start": "1533644926363"
-  }, 
-  "origin": "183.240.19.59", 
-  "url": "https://httpbin.org/get?show_env=4"
+    "X-Request-Id": "30dd2dd3-f1f7-4277-8277-20388cb75326", 
+    "X-Request-Start": "1534051149539"
+  }, 
+  "origin": "183.240.20.28", 
+  "url": "https://httpbin.org/get?show_env=5"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 5}</t>
-  </si>
-  <si>
-    <t>1.007777</t>
+    <t>{'show_env': 6}</t>
+  </si>
+  <si>
+    <t>0.976729</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "5"
+    "show_env": "6"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.28", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "2f79e3f1-0266-408d-aaf6-4477a0758497", 
+    "X-Request-Start": "1534051150748"
+  }, 
+  "origin": "183.240.20.28", 
+  "url": "https://httpbin.org/get?show_env=6"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 7}</t>
+  </si>
+  <si>
+    <t>4.018017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "7"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.167", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "1c885f0b-097c-4e43-b0e4-ea53dc16f37c", 
+    "X-Request-Start": "1534051154974"
+  }, 
+  "origin": "183.2.198.167", 
+  "url": "https://httpbin.org/get?show_env=7"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 8}</t>
+  </si>
+  <si>
+    <t>0.948952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "8"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.28", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "a7b7efd7-6083-4302-80f8-9dc4830e87cb", 
+    "X-Request-Start": "1534051156157"
+  }, 
+  "origin": "183.240.20.28", 
+  "url": "https://httpbin.org/get?show_env=8"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 9}</t>
+  </si>
+  <si>
+    <t>0.993258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "9"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -229,27 +357,59 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.19.59", 
+    "X-Forwarded-For": "183.240.20.28", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "d5b91a19-59e8-4c27-9416-19882ff24c03", 
-    "X-Request-Start": "1533644927605"
-  }, 
-  "origin": "183.240.19.59", 
-  "url": "https://httpbin.org/get?show_env=5"
+    "X-Request-Id": "ed3eab28-5570-4b32-989a-cfbc06a61821", 
+    "X-Request-Start": "1534051157420"
+  }, 
+  "origin": "183.240.20.28", 
+  "url": "https://httpbin.org/get?show_env=9"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 6}</t>
-  </si>
-  <si>
-    <t>1.027611</t>
+    <t>{'show_env': 10}</t>
+  </si>
+  <si>
+    <t>1.431149</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "6"
+    "show_env": "10"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.167", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "53182001-3ed7-44ec-bbed-4f1f89e026c3", 
+    "X-Request-Start": "1534051159096"
+  }, 
+  "origin": "183.2.198.167", 
+  "url": "https://httpbin.org/get?show_env=10"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 11}</t>
+  </si>
+  <si>
+    <t>1.095668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "11"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -261,229 +421,19 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.19.59", 
+    "X-Forwarded-For": "183.2.198.167", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "ab012f8c-c92e-42c4-93c4-4bdf71a8921e", 
-    "X-Request-Start": "1533644928860"
-  }, 
-  "origin": "183.240.19.59", 
-  "url": "https://httpbin.org/get?show_env=6"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 7}</t>
-  </si>
-  <si>
-    <t>0.981192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "7"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "3a689aa9-5f03-4d7c-8229-ce144a4ab10d", 
-    "X-Request-Start": "1533644930049"
-  }, 
-  "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=7"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 8}</t>
-  </si>
-  <si>
-    <t>1.036124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "8"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.19.59", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "4d196d36-221b-482b-a6e3-04fe6e4df4ea", 
-    "X-Request-Start": "1533644931309"
-  }, 
-  "origin": "183.240.19.59", 
-  "url": "https://httpbin.org/get?show_env=8"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 9}</t>
-  </si>
-  <si>
-    <t>1.002032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "9"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.19.59", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "71c1bac0-3011-4d39-985e-f78a4fd5802a", 
-    "X-Request-Start": "1533644932552"
-  }, 
-  "origin": "183.240.19.59", 
-  "url": "https://httpbin.org/get?show_env=9"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 10}</t>
-  </si>
-  <si>
-    <t>0.971456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "10"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.19.59", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "01a6161d-e30b-422a-be57-14d90048310c", 
-    "X-Request-Start": "1533644933747"
-  }, 
-  "origin": "183.240.19.59", 
-  "url": "https://httpbin.org/get?show_env=10"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 11}</t>
-  </si>
-  <si>
-    <t>1.987692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "11"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "00637df5-7f65-42d6-8d5d-58a9e76267ec", 
-    "X-Request-Start": "1533644935967"
-  }, 
-  "origin": "183.240.20.27", 
+    "X-Request-Id": "193fe11f-6be6-4fe4-a9ad-310fb06e93e0", 
+    "X-Request-Start": "1534051160393"
+  }, 
+  "origin": "183.2.198.167", 
   "url": "https://httpbin.org/get?show_env=11"
 }
 </t>
   </si>
   <si>
     <t>{'show_env': 12}</t>
-  </si>
-  <si>
-    <t>2.326002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "12"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.19.59", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "abe388ca-ed1c-466b-a0ba-902571fd21c5", 
-    "X-Request-Start": "1533644829301"
-  }, 
-  "origin": "183.240.19.59", 
-  "url": "https://httpbin.org/get?show_env=12"
-}
-</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>sheng</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>//input[@id="kw"]</t>
-  </si>
-  <si>
-    <t>//*[@id="su"]</t>
   </si>
   <si>
     <t>1.001936</t>
@@ -510,6 +460,56 @@
     "X-Request-Start": "1533644937258"
   }, 
   "origin": "183.240.19.59", 
+  "url": "https://httpbin.org/get?show_env=12"
+}
+</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>sheng</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>//input[@id="kw"]</t>
+  </si>
+  <si>
+    <t>//*[@id="su"]</t>
+  </si>
+  <si>
+    <t>0.958662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "12"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.28", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "6eeecd75-a610-4429-bcfc-3c813f17248d", 
+    "X-Request-Start": "1534051161592"
+  }, 
+  "origin": "183.240.20.28", 
   "url": "https://httpbin.org/get?show_env=12"
 }
 </t>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -75,7 +75,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>12.189655</t>
+    <t>1.9912</t>
   </si>
   <si>
     <t>pass</t>
@@ -95,13 +95,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.167", 
+    "X-Forwarded-For": "183.240.20.28", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "bdcd2510-ad51-48ed-80e8-e58f49d3836e", 
-    "X-Request-Start": "1534051143546"
-  }, 
-  "origin": "183.2.198.167", 
+    "X-Request-Id": "58f2da29-8801-4ad2-a76b-dd2acdb62891", 
+    "X-Request-Start": "1534082871337"
+  }, 
+  "origin": "183.240.20.28", 
   "url": "https://httpbin.org/get?show_env=1"
 }
 </t>
@@ -110,7 +110,7 @@
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>0.973423</t>
+    <t>0.99973</t>
   </si>
   <si>
     <t>fail</t>
@@ -119,41 +119,6 @@
     <t xml:space="preserve">{
   "args": {
     "show_env": "2"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.167", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "99de6341-ce5c-4945-85d0-ef2d2268b24e", 
-    "X-Request-Start": "1534051144753"
-  }, 
-  "origin": "183.2.198.167", 
-  "url": "https://httpbin.org/get?show_env=2"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 3}</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>0.96962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "3"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -168,56 +133,59 @@
     "X-Forwarded-For": "183.240.20.28", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "41ecccbe-5606-49d6-8876-169ec745b69a", 
-    "X-Request-Start": "1534051145968"
+    "X-Request-Id": "d7543b57-b934-4940-89a9-09b7ac984007", 
+    "X-Request-Start": "1534082872590"
   }, 
   "origin": "183.240.20.28", 
-  "url": "https://httpbin.org/get?show_env=3"
+  "url": "https://httpbin.org/get?show_env=2"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 4}</t>
-  </si>
-  <si>
-    <t>2.126891</t>
+    <t>{'show_env': 3}</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>1.047493</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "4"
+    "show_env": "3"
   }, 
   "headers": {
     "Accept": "*/*", 
     "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
+    "Connect-Time": "3", 
     "Connection": "close", 
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.167", 
+    "X-Forwarded-For": "183.2.198.166", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "f40f3f9b-057b-49d4-b438-33114450ce1d", 
-    "X-Request-Start": "1534051148201"
-  }, 
-  "origin": "183.2.198.167", 
-  "url": "https://httpbin.org/get?show_env=4"
+    "X-Request-Id": "fa857b28-532a-4ef8-a38f-175fbf2a0f89", 
+    "X-Request-Start": "1534082873917"
+  }, 
+  "origin": "183.2.198.166", 
+  "url": "https://httpbin.org/get?show_env=3"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 5}</t>
-  </si>
-  <si>
-    <t>1.020114</t>
+    <t>{'show_env': 4}</t>
+  </si>
+  <si>
+    <t>0.983752</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "5"
+    "show_env": "4"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -232,24 +200,24 @@
     "X-Forwarded-For": "183.240.20.28", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "30dd2dd3-f1f7-4277-8277-20388cb75326", 
-    "X-Request-Start": "1534051149539"
+    "X-Request-Id": "df99b224-a17b-48b5-9c9b-b06453673162", 
+    "X-Request-Start": "1534082875132"
   }, 
   "origin": "183.240.20.28", 
-  "url": "https://httpbin.org/get?show_env=5"
+  "url": "https://httpbin.org/get?show_env=4"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 6}</t>
-  </si>
-  <si>
-    <t>0.976729</t>
+    <t>{'show_env': 5}</t>
+  </si>
+  <si>
+    <t>1.004402</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "6"
+    "show_env": "5"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -264,10 +232,42 @@
     "X-Forwarded-For": "183.240.20.28", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "2f79e3f1-0266-408d-aaf6-4477a0758497", 
-    "X-Request-Start": "1534051150748"
+    "X-Request-Id": "57b600a8-1668-4ea2-bf85-5d4bc0c50dd1", 
+    "X-Request-Start": "1534082876428"
   }, 
   "origin": "183.240.20.28", 
+  "url": "https://httpbin.org/get?show_env=5"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 6}</t>
+  </si>
+  <si>
+    <t>1.046021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "6"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.166", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "938b55f2-d448-4b1e-ab29-e0947e4bbf8c", 
+    "X-Request-Start": "1534082877684"
+  }, 
+  "origin": "183.2.198.166", 
   "url": "https://httpbin.org/get?show_env=6"
 }
 </t>
@@ -436,56 +436,6 @@
     <t>{'show_env': 12}</t>
   </si>
   <si>
-    <t>1.001936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "12"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.19.59", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "a95a4568-33f0-404f-b119-2fe2222aa27e", 
-    "X-Request-Start": "1533644937258"
-  }, 
-  "origin": "183.240.19.59", 
-  "url": "https://httpbin.org/get?show_env=12"
-}
-</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>sheng</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>//input[@id="kw"]</t>
-  </si>
-  <si>
-    <t>//*[@id="su"]</t>
-  </si>
-  <si>
     <t>0.958662</t>
   </si>
   <si>
@@ -511,6 +461,56 @@
   }, 
   "origin": "183.240.20.28", 
   "url": "https://httpbin.org/get?show_env=12"
+}
+</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>sheng</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>//input[@id="kw"]</t>
+  </si>
+  <si>
+    <t>//*[@id="su"]</t>
+  </si>
+  <si>
+    <t>0.977039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "7"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.166", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "e5ea8f8c-0f39-4235-9ab8-24f271b0b90b", 
+    "X-Request-Start": "1534082878895"
+  }, 
+  "origin": "183.2.198.166", 
+  "url": "https://httpbin.org/get?show_env=7"
 }
 </t>
   </si>
@@ -1262,15 +1262,15 @@
         <v>18</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="11" t="n"/>
+        <v>65</v>
+      </c>
+      <c r="N8" s="11" t="s"/>
     </row>
     <row customFormat="1" customHeight="1" ht="43" r="9" s="1" spans="1:14">
       <c r="A9" s="1" t="n">
@@ -1436,15 +1436,15 @@
         <v>18</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" s="11" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="N13" s="11" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7950" windowWidth="20390" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="test2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="test3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -75,7 +75,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>1.9912</t>
+    <t>0.917301</t>
   </si>
   <si>
     <t>pass</t>
@@ -84,6 +84,41 @@
     <t xml:space="preserve">{
   "args": {
     "show_env": "1"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "113.111.10.187", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "de97d49a-8273-48bb-83e0-9dc24169400d", 
+    "X-Request-Start": "1545983931708"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=1"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 2}</t>
+  </si>
+  <si>
+    <t>0.9582</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "2"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -95,30 +130,30 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.28", 
+    "X-Forwarded-For": "113.111.10.187", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "58f2da29-8801-4ad2-a76b-dd2acdb62891", 
-    "X-Request-Start": "1534082871337"
-  }, 
-  "origin": "183.240.20.28", 
-  "url": "https://httpbin.org/get?show_env=1"
+    "X-Request-Id": "5baf9ec9-6bcf-490c-b2ec-4f07d0e0f547", 
+    "X-Request-Start": "1545983932824"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=2"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 2}</t>
-  </si>
-  <si>
-    <t>0.99973</t>
-  </si>
-  <si>
-    <t>fail</t>
+    <t>{'show_env': 3}</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>0.910254</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "2"
+    "show_env": "3"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -130,62 +165,59 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.28", 
+    "X-Forwarded-For": "113.111.10.187", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "d7543b57-b934-4940-89a9-09b7ac984007", 
-    "X-Request-Start": "1534082872590"
-  }, 
-  "origin": "183.240.20.28", 
-  "url": "https://httpbin.org/get?show_env=2"
+    "X-Request-Id": "10cfc804-8efc-43bf-aee7-4745c6ae9dbe", 
+    "X-Request-Start": "1545983933870"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=3"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 3}</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>1.047493</t>
+    <t>{'show_env': 4}</t>
+  </si>
+  <si>
+    <t>0.931203</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "3"
+    "show_env": "4"
   }, 
   "headers": {
     "Accept": "*/*", 
     "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "3", 
+    "Connect-Time": "1", 
     "Connection": "close", 
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.166", 
+    "X-Forwarded-For": "113.111.10.187", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "fa857b28-532a-4ef8-a38f-175fbf2a0f89", 
-    "X-Request-Start": "1534082873917"
-  }, 
-  "origin": "183.2.198.166", 
-  "url": "https://httpbin.org/get?show_env=3"
+    "X-Request-Id": "15153254-52ba-4945-b0ad-cbab91e43034", 
+    "X-Request-Start": "1545983934951"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=4"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 4}</t>
-  </si>
-  <si>
-    <t>0.983752</t>
+    <t>{'show_env': 5}</t>
+  </si>
+  <si>
+    <t>0.918362</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "4"
+    "show_env": "5"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -197,27 +229,27 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.28", 
+    "X-Forwarded-For": "113.111.10.187", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "df99b224-a17b-48b5-9c9b-b06453673162", 
-    "X-Request-Start": "1534082875132"
-  }, 
-  "origin": "183.240.20.28", 
-  "url": "https://httpbin.org/get?show_env=4"
+    "X-Request-Id": "cfc2d4aa-ecf8-45fe-99e4-af15078f189c", 
+    "X-Request-Start": "1545983936009"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=5"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 5}</t>
-  </si>
-  <si>
-    <t>1.004402</t>
+    <t>{'show_env': 6}</t>
+  </si>
+  <si>
+    <t>0.939287</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "5"
+    "show_env": "6"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -229,27 +261,59 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.28", 
+    "X-Forwarded-For": "113.111.10.187", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "57b600a8-1668-4ea2-bf85-5d4bc0c50dd1", 
-    "X-Request-Start": "1534082876428"
-  }, 
-  "origin": "183.240.20.28", 
-  "url": "https://httpbin.org/get?show_env=5"
+    "X-Request-Id": "aa083666-285f-4fea-a648-1d959461d055", 
+    "X-Request-Start": "1545983937076"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=6"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 6}</t>
-  </si>
-  <si>
-    <t>1.046021</t>
+    <t>{'show_env': 7}</t>
+  </si>
+  <si>
+    <t>0.965328</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "6"
+    "show_env": "7"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "113.111.10.187", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "3ca6081b-377d-48e8-84b6-e84ab548d838", 
+    "X-Request-Start": "1545983938217"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=7"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 8}</t>
+  </si>
+  <si>
+    <t>0.906918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "8"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -261,27 +325,59 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.166", 
+    "X-Forwarded-For": "113.111.10.187", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "938b55f2-d448-4b1e-ab29-e0947e4bbf8c", 
-    "X-Request-Start": "1534082877684"
-  }, 
-  "origin": "183.2.198.166", 
-  "url": "https://httpbin.org/get?show_env=6"
+    "X-Request-Id": "31941628-9e5a-4b74-a591-b6d5ba8f1f27", 
+    "X-Request-Start": "1545983939269"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=8"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 7}</t>
-  </si>
-  <si>
-    <t>4.018017</t>
+    <t>{'show_env': 9}</t>
+  </si>
+  <si>
+    <t>1.039194</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "7"
+    "show_env": "9"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "113.111.10.187", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "570c1a7d-1290-4812-8e34-2f16ee56617a", 
+    "X-Request-Start": "1545983940456"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=9"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 10}</t>
+  </si>
+  <si>
+    <t>0.939471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "10"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -293,109 +389,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.167", 
+    "X-Forwarded-For": "113.111.10.187", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "1c885f0b-097c-4e43-b0e4-ea53dc16f37c", 
-    "X-Request-Start": "1534051154974"
-  }, 
-  "origin": "183.2.198.167", 
-  "url": "https://httpbin.org/get?show_env=7"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 8}</t>
-  </si>
-  <si>
-    <t>0.948952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "8"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.28", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "a7b7efd7-6083-4302-80f8-9dc4830e87cb", 
-    "X-Request-Start": "1534051156157"
-  }, 
-  "origin": "183.240.20.28", 
-  "url": "https://httpbin.org/get?show_env=8"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 9}</t>
-  </si>
-  <si>
-    <t>0.993258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "9"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.28", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "ed3eab28-5570-4b32-989a-cfbc06a61821", 
-    "X-Request-Start": "1534051157420"
-  }, 
-  "origin": "183.240.20.28", 
-  "url": "https://httpbin.org/get?show_env=9"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 10}</t>
-  </si>
-  <si>
-    <t>1.431149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "10"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.167", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "53182001-3ed7-44ec-bbed-4f1f89e026c3", 
-    "X-Request-Start": "1534051159096"
-  }, 
-  "origin": "183.2.198.167", 
+    "X-Request-Id": "e9aeda83-4bec-49f4-9472-91da2ccf84f2", 
+    "X-Request-Start": "1545983941553"
+  }, 
+  "origin": "113.111.10.187", 
   "url": "https://httpbin.org/get?show_env=10"
 }
 </t>
@@ -486,12 +486,12 @@
     <t>//*[@id="su"]</t>
   </si>
   <si>
-    <t>0.977039</t>
+    <t>0.949912</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "7"
+    "show_env": "11"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -503,14 +503,14 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.166", 
+    "X-Forwarded-For": "113.111.10.187", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "e5ea8f8c-0f39-4235-9ab8-24f271b0b90b", 
-    "X-Request-Start": "1534082878895"
-  }, 
-  "origin": "183.2.198.166", 
-  "url": "https://httpbin.org/get?show_env=7"
+    "X-Request-Id": "2c87b428-9945-4def-a1fb-483fa0920af9", 
+    "X-Request-Start": "1545983942638"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=11"
 }
 </t>
   </si>
@@ -954,7 +954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1262,15 +1262,15 @@
         <v>18</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" s="11" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="N8" s="11" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="43" r="9" s="1" spans="1:14">
       <c r="A9" s="1" t="n">
@@ -1403,15 +1403,15 @@
         <v>18</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>24</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" s="11" t="n"/>
+        <v>65</v>
+      </c>
+      <c r="N12" s="11" t="s"/>
     </row>
     <row customFormat="1" customHeight="1" ht="43" r="13" s="1" spans="1:14">
       <c r="A13" s="1" t="n">
@@ -1448,18 +1448,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" tooltip="https://httpbin.org/get" r:id="rId1"/>
-    <hyperlink ref="B3" tooltip="https://httpbin.org/get" r:id="rId2"/>
-    <hyperlink ref="B4" tooltip="https://httpbin.org/get" r:id="rId3"/>
-    <hyperlink ref="B5" tooltip="https://httpbin.org/get" r:id="rId4"/>
-    <hyperlink ref="B6" tooltip="https://httpbin.org/get" r:id="rId5"/>
-    <hyperlink ref="B7" tooltip="https://httpbin.org/get" r:id="rId6"/>
-    <hyperlink ref="B8" tooltip="https://httpbin.org/get" r:id="rId7"/>
-    <hyperlink ref="B9" tooltip="https://httpbin.org/get" r:id="rId8"/>
-    <hyperlink ref="B10" tooltip="https://httpbin.org/get" r:id="rId9"/>
-    <hyperlink ref="B11" tooltip="https://httpbin.org/get" r:id="rId10"/>
-    <hyperlink ref="B12" tooltip="https://httpbin.org/get" r:id="rId11"/>
-    <hyperlink ref="B13" tooltip="https://httpbin.org/get" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" tooltip="https://httpbin.org/get" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" tooltip="https://httpbin.org/get" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" tooltip="https://httpbin.org/get" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" tooltip="https://httpbin.org/get" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" tooltip="https://httpbin.org/get" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" tooltip="https://httpbin.org/get" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" tooltip="https://httpbin.org/get" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" tooltip="https://httpbin.org/get" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" tooltip="https://httpbin.org/get" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" tooltip="https://httpbin.org/get" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" tooltip="https://httpbin.org/get" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" tooltip="https://httpbin.org/get" r:id="rId12"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="landscape" paperSize="3"/>
